--- a/GMM_Test-4-9.xlsx
+++ b/GMM_Test-4-9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpc\Desktop\Breath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CF037-308C-4892-A300-5902A86E7E79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F36583-3102-49A3-AE74-E6202BF61FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="1680" windowWidth="12450" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="600" windowWidth="12450" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -865,7 +865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -917,7 +917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -995,7 +995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>10</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>10</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>15</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>15</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>15</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>15</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>15</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>15</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>15</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>20</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>20</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>20</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>20</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>20</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>20</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>20</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>20</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>25</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>25</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>25</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>25</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>25</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>25</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>25</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>25</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>30</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>30</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>30</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>30</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>30</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>30</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>30</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>30</v>
       </c>
@@ -2715,7 +2715,7 @@
   <autoFilter ref="B1:B74" xr:uid="{55ABE90B-F4B3-4067-B5D7-44255A8F0869}">
     <filterColumn colId="0">
       <filters blank="1">
-        <filter val="96 gfcc"/>
+        <filter val="32 gfcc"/>
       </filters>
     </filterColumn>
   </autoFilter>
